--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H2">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I2">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J2">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.401300088170972</v>
+        <v>0.403827</v>
       </c>
       <c r="N2">
-        <v>0.401300088170972</v>
+        <v>1.211481</v>
       </c>
       <c r="O2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q2">
-        <v>0.1719549996808624</v>
+        <v>0.201856021957</v>
       </c>
       <c r="R2">
-        <v>0.1719549996808624</v>
+        <v>1.816704197613</v>
       </c>
       <c r="S2">
-        <v>0.0001225097994850708</v>
+        <v>0.0001370938820886924</v>
       </c>
       <c r="T2">
-        <v>0.0001225097994850708</v>
+        <v>0.0001370938820886923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H3">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I3">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J3">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.4340792702359</v>
+        <v>0.137516</v>
       </c>
       <c r="N3">
-        <v>23.4340792702359</v>
+        <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q3">
-        <v>10.04138103183751</v>
+        <v>0.06873842688933333</v>
       </c>
       <c r="R3">
-        <v>10.04138103183751</v>
+        <v>0.6186458420040001</v>
       </c>
       <c r="S3">
-        <v>0.007154008775823441</v>
+        <v>4.668484843586146E-05</v>
       </c>
       <c r="T3">
-        <v>0.007154008775823441</v>
+        <v>4.668484843586145E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H4">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I4">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J4">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.8685390322163</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N4">
-        <v>50.8685390322163</v>
+        <v>70.309682</v>
       </c>
       <c r="O4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q4">
-        <v>21.79690428905171</v>
+        <v>11.71494452953178</v>
       </c>
       <c r="R4">
-        <v>21.79690428905171</v>
+        <v>105.434500765786</v>
       </c>
       <c r="S4">
-        <v>0.01552926276527566</v>
+        <v>0.007956399855880083</v>
       </c>
       <c r="T4">
-        <v>0.01552926276527566</v>
+        <v>0.00795639985588008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H5">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I5">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J5">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.422104904506321</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N5">
-        <v>0.422104904506321</v>
+        <v>161.00704</v>
       </c>
       <c r="O5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q5">
-        <v>0.1808697552260473</v>
+        <v>26.82686777710223</v>
       </c>
       <c r="R5">
-        <v>0.1808697552260473</v>
+        <v>241.44180999392</v>
       </c>
       <c r="S5">
-        <v>0.000128861140919318</v>
+        <v>0.01821991443300339</v>
       </c>
       <c r="T5">
-        <v>0.000128861140919318</v>
+        <v>0.01821991443300339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.5844203953138</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H6">
-        <v>17.5844203953138</v>
+        <v>1.499573</v>
       </c>
       <c r="I6">
-        <v>0.9411838793693468</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J6">
-        <v>0.9411838793693468</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.401300088170972</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N6">
-        <v>0.401300088170972</v>
+        <v>1.290893</v>
       </c>
       <c r="O6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q6">
-        <v>7.056629455074866</v>
+        <v>0.2150875876321111</v>
       </c>
       <c r="R6">
-        <v>7.056629455074866</v>
+        <v>1.935788288689</v>
       </c>
       <c r="S6">
-        <v>0.005027514531046698</v>
+        <v>0.0001460803204764403</v>
       </c>
       <c r="T6">
-        <v>0.005027514531046698</v>
+        <v>0.0001460803204764403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.5844203953138</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H7">
-        <v>17.5844203953138</v>
+        <v>52.897882</v>
       </c>
       <c r="I7">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J7">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4340792702359</v>
+        <v>0.403827</v>
       </c>
       <c r="N7">
-        <v>23.4340792702359</v>
+        <v>1.211481</v>
       </c>
       <c r="O7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q7">
-        <v>412.0747014649365</v>
+        <v>7.120530998137999</v>
       </c>
       <c r="R7">
-        <v>412.0747014649365</v>
+        <v>64.084778983242</v>
       </c>
       <c r="S7">
-        <v>0.2935837233173411</v>
+        <v>0.004836027320877051</v>
       </c>
       <c r="T7">
-        <v>0.2935837233173411</v>
+        <v>0.00483602732087705</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.5844203953138</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H8">
-        <v>17.5844203953138</v>
+        <v>52.897882</v>
       </c>
       <c r="I8">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J8">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>50.8685390322163</v>
+        <v>0.137516</v>
       </c>
       <c r="N8">
-        <v>50.8685390322163</v>
+        <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q8">
-        <v>894.4937752379203</v>
+        <v>2.424768380370666</v>
       </c>
       <c r="R8">
-        <v>894.4937752379203</v>
+        <v>21.822915423336</v>
       </c>
       <c r="S8">
-        <v>0.6372844828497166</v>
+        <v>0.001646821864456137</v>
       </c>
       <c r="T8">
-        <v>0.6372844828497166</v>
+        <v>0.001646821864456137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.5844203953138</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H9">
-        <v>17.5844203953138</v>
+        <v>52.897882</v>
       </c>
       <c r="I9">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J9">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.422104904506321</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N9">
-        <v>0.422104904506321</v>
+        <v>70.309682</v>
       </c>
       <c r="O9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q9">
-        <v>7.422470091762935</v>
+        <v>413.2481402103915</v>
       </c>
       <c r="R9">
-        <v>7.422470091762935</v>
+        <v>3719.233261893523</v>
       </c>
       <c r="S9">
-        <v>0.005288158671242257</v>
+        <v>0.2806643629360902</v>
       </c>
       <c r="T9">
-        <v>0.005288158671242257</v>
+        <v>0.2806643629360901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.670384406289123</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H10">
-        <v>0.670384406289123</v>
+        <v>52.897882</v>
       </c>
       <c r="I10">
-        <v>0.03588147814914962</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J10">
-        <v>0.03588147814914962</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.401300088170972</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N10">
-        <v>0.401300088170972</v>
+        <v>161.00704</v>
       </c>
       <c r="O10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q10">
-        <v>0.2690253213522698</v>
+        <v>946.3257114543645</v>
       </c>
       <c r="R10">
-        <v>0.2690253213522698</v>
+        <v>8516.93140308928</v>
       </c>
       <c r="S10">
-        <v>0.000191667809813275</v>
+        <v>0.6427128814183172</v>
       </c>
       <c r="T10">
-        <v>0.000191667809813275</v>
+        <v>0.6427128814183171</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.670384406289123</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H11">
-        <v>0.670384406289123</v>
+        <v>52.897882</v>
       </c>
       <c r="I11">
-        <v>0.03588147814914962</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J11">
-        <v>0.03588147814914962</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.4340792702359</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N11">
-        <v>23.4340792702359</v>
+        <v>1.290893</v>
       </c>
       <c r="O11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q11">
-        <v>15.70984131850934</v>
+        <v>7.587278398736222</v>
       </c>
       <c r="R11">
-        <v>15.70984131850934</v>
+        <v>68.28550558862599</v>
       </c>
       <c r="S11">
-        <v>0.01119251846962759</v>
+        <v>0.00515302659829493</v>
       </c>
       <c r="T11">
-        <v>0.01119251846962759</v>
+        <v>0.005153026598294928</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.670384406289123</v>
+        <v>0.01414533333333333</v>
       </c>
       <c r="H12">
-        <v>0.670384406289123</v>
+        <v>0.042436</v>
       </c>
       <c r="I12">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267997</v>
       </c>
       <c r="J12">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267996</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.8685390322163</v>
+        <v>0.403827</v>
       </c>
       <c r="N12">
-        <v>50.8685390322163</v>
+        <v>1.211481</v>
       </c>
       <c r="O12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q12">
-        <v>34.1014753379074</v>
+        <v>0.005712267524000001</v>
       </c>
       <c r="R12">
-        <v>34.1014753379074</v>
+        <v>0.051410407716</v>
       </c>
       <c r="S12">
-        <v>0.02429568732253083</v>
+        <v>3.879581707803322E-06</v>
       </c>
       <c r="T12">
-        <v>0.02429568732253083</v>
+        <v>3.879581707803321E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01414533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.042436</v>
+      </c>
+      <c r="I13">
+        <v>0.0007500908404267997</v>
+      </c>
+      <c r="J13">
+        <v>0.0007500908404267996</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.137516</v>
+      </c>
+      <c r="N13">
+        <v>0.412548</v>
+      </c>
+      <c r="O13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q13">
+        <v>0.001945209658666667</v>
+      </c>
+      <c r="R13">
+        <v>0.017506886928</v>
+      </c>
+      <c r="S13">
+        <v>1.321121564754911E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.321121564754911E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01414533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.042436</v>
+      </c>
+      <c r="I14">
+        <v>0.0007500908404267997</v>
+      </c>
+      <c r="J14">
+        <v>0.0007500908404267996</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N14">
+        <v>70.309682</v>
+      </c>
+      <c r="O14">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P14">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q14">
+        <v>0.3315179628168889</v>
+      </c>
+      <c r="R14">
+        <v>2.983661665352</v>
+      </c>
+      <c r="S14">
+        <v>0.0002251559505833509</v>
+      </c>
+      <c r="T14">
+        <v>0.0002251559505833508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01414533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.042436</v>
+      </c>
+      <c r="I15">
+        <v>0.0007500908404267997</v>
+      </c>
+      <c r="J15">
+        <v>0.0007500908404267996</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N15">
+        <v>161.00704</v>
+      </c>
+      <c r="O15">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P15">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q15">
+        <v>0.7591660832711112</v>
+      </c>
+      <c r="R15">
+        <v>6.832494749440001</v>
+      </c>
+      <c r="S15">
+        <v>0.0005156003001380606</v>
+      </c>
+      <c r="T15">
+        <v>0.0005156003001380605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01414533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.042436</v>
+      </c>
+      <c r="I16">
+        <v>0.0007500908404267997</v>
+      </c>
+      <c r="J16">
+        <v>0.0007500908404267996</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.290893</v>
+      </c>
+      <c r="O16">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P16">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q16">
+        <v>0.006086703927555556</v>
+      </c>
+      <c r="R16">
+        <v>0.054780335348</v>
+      </c>
+      <c r="S16">
+        <v>4.133886432830027E-06</v>
+      </c>
+      <c r="T16">
+        <v>4.133886432830026E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.13459</v>
+      </c>
+      <c r="I17">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J17">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.403827</v>
+      </c>
+      <c r="N17">
+        <v>1.211481</v>
+      </c>
+      <c r="O17">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P17">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q17">
+        <v>0.2873350253099999</v>
+      </c>
+      <c r="R17">
+        <v>2.58601522779</v>
+      </c>
+      <c r="S17">
+        <v>0.0001951483720817205</v>
+      </c>
+      <c r="T17">
+        <v>0.0001951483720817204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.13459</v>
+      </c>
+      <c r="I18">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J18">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.137516</v>
+      </c>
+      <c r="N18">
+        <v>0.412548</v>
+      </c>
+      <c r="O18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q18">
+        <v>0.09784675947999999</v>
+      </c>
+      <c r="R18">
+        <v>0.8806208353199999</v>
+      </c>
+      <c r="S18">
+        <v>6.645425772716999E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.645425772716998E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.670384406289123</v>
-      </c>
-      <c r="H13">
-        <v>0.670384406289123</v>
-      </c>
-      <c r="I13">
-        <v>0.03588147814914962</v>
-      </c>
-      <c r="J13">
-        <v>0.03588147814914962</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="N13">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="O13">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="P13">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="Q13">
-        <v>0.282972545799197</v>
-      </c>
-      <c r="R13">
-        <v>0.282972545799197</v>
-      </c>
-      <c r="S13">
-        <v>0.0002016045471779199</v>
-      </c>
-      <c r="T13">
-        <v>0.0002016045471779199</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H19">
+        <v>2.13459</v>
+      </c>
+      <c r="I19">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J19">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N19">
+        <v>70.309682</v>
+      </c>
+      <c r="O19">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P19">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q19">
+        <v>16.67581601115333</v>
+      </c>
+      <c r="R19">
+        <v>150.08234410038</v>
+      </c>
+      <c r="S19">
+        <v>0.01132565841633789</v>
+      </c>
+      <c r="T19">
+        <v>0.01132565841633789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.13459</v>
+      </c>
+      <c r="I20">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J20">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N20">
+        <v>161.00704</v>
+      </c>
+      <c r="O20">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P20">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q20">
+        <v>38.18711305706667</v>
+      </c>
+      <c r="R20">
+        <v>343.6840175136</v>
+      </c>
+      <c r="S20">
+        <v>0.02593541438099026</v>
+      </c>
+      <c r="T20">
+        <v>0.02593541438099025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.13459</v>
+      </c>
+      <c r="I21">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J21">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.290893</v>
+      </c>
+      <c r="O21">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P21">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q21">
+        <v>0.3061696987633333</v>
+      </c>
+      <c r="R21">
+        <v>2.75552728887</v>
+      </c>
+      <c r="S21">
+        <v>0.0002079402545163221</v>
+      </c>
+      <c r="T21">
+        <v>0.000207940254516322</v>
       </c>
     </row>
   </sheetData>
